--- a/liga_serie_A/datasets_liga_serie_A/links_times_cartola_liga_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/links_times_cartola_liga_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -103,9 +103,6 @@
     <t>cartola scheuer</t>
   </si>
   <si>
-    <t>Remo Santo Ângelo</t>
-  </si>
-  <si>
     <t>Analove10 ITAQUI GRANDE!!</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/3851966</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/18187555</t>
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/44574236</t>
@@ -801,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,7 +820,7 @@
         <v>186283</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -837,7 +831,7 @@
         <v>1273719</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -848,7 +842,7 @@
         <v>3246608</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -859,7 +853,7 @@
         <v>18421230</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -870,7 +864,7 @@
         <v>47546604</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -881,7 +875,7 @@
         <v>3708025</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -892,7 +886,7 @@
         <v>528730</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -903,7 +897,7 @@
         <v>1148959</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -914,7 +908,7 @@
         <v>3447341</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -925,7 +919,7 @@
         <v>896842</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -936,7 +930,7 @@
         <v>29199152</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -947,7 +941,7 @@
         <v>14227419</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -958,7 +952,7 @@
         <v>159074</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -969,7 +963,7 @@
         <v>18223508</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -980,7 +974,7 @@
         <v>28676425</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -991,7 +985,7 @@
         <v>216066</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1002,7 +996,7 @@
         <v>13951133</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1013,7 +1007,7 @@
         <v>18344271</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1024,7 +1018,7 @@
         <v>18642587</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1035,7 +1029,7 @@
         <v>2760207</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1046,7 +1040,7 @@
         <v>48498051</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1057,7 +1051,7 @@
         <v>25313333</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1068,7 +1062,7 @@
         <v>29411306</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1079,7 +1073,7 @@
         <v>479510</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1090,7 +1084,7 @@
         <v>18661583</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1101,7 +1095,7 @@
         <v>3851966</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1109,10 +1103,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>18187555</v>
+        <v>44574236</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1120,10 +1114,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>44574236</v>
+        <v>387186</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1131,10 +1125,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>387186</v>
+        <v>44810918</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1142,10 +1136,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>44810918</v>
+        <v>14696986</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1153,10 +1147,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>14696986</v>
+        <v>18346776</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1164,10 +1158,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>18346776</v>
+        <v>3914981</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1175,10 +1169,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>3914981</v>
+        <v>9823692</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1186,10 +1180,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>9823692</v>
+        <v>47543456</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1197,10 +1191,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>47543456</v>
+        <v>3424598</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1208,10 +1202,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>3424598</v>
+        <v>5823700</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1219,10 +1213,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>5823700</v>
+        <v>29228373</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1230,10 +1224,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>29228373</v>
+        <v>6148913</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1241,10 +1235,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>6148913</v>
+        <v>4911779</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1252,10 +1246,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>4911779</v>
+        <v>2602301</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1263,10 +1257,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>2602301</v>
+        <v>212042</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1274,10 +1268,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>212042</v>
+        <v>25565675</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1285,10 +1279,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>25565675</v>
+        <v>25751748</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1296,10 +1290,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>25751748</v>
+        <v>49355335</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1307,10 +1301,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>49355335</v>
+        <v>49180400</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1318,10 +1312,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>49180400</v>
+        <v>17887202</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1329,10 +1323,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>17887202</v>
+        <v>20696550</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1340,10 +1334,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>20696550</v>
+        <v>25401606</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1351,10 +1345,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>25401606</v>
+        <v>44536510</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1362,10 +1356,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>44536510</v>
+        <v>8319052</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1373,10 +1367,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>8319052</v>
+        <v>24468241</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1384,10 +1378,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>24468241</v>
+        <v>25811332</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1395,10 +1389,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>25811332</v>
+        <v>13707047</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1406,10 +1400,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>13707047</v>
+        <v>117598</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1417,10 +1411,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>117598</v>
+        <v>14124559</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1428,10 +1422,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>14124559</v>
+        <v>8707471</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1439,10 +1433,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>8707471</v>
+        <v>20340994</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1450,10 +1444,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>20340994</v>
+        <v>50189029</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1461,10 +1455,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>50189029</v>
+        <v>5664592</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1472,10 +1466,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>5664592</v>
+        <v>26891853</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1483,10 +1477,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>26891853</v>
+        <v>49128587</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1494,10 +1488,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>49128587</v>
+        <v>50158297</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1505,10 +1499,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>50158297</v>
+        <v>25311459</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1516,10 +1510,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>25311459</v>
+        <v>36359</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1527,10 +1521,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>36359</v>
+        <v>44574146</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1538,10 +1532,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>44574146</v>
+        <v>2981301</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1549,21 +1543,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>2981301</v>
+        <v>49121941</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69">
-        <v>49121941</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1594,48 +1577,47 @@
     <hyperlink ref="C25" r:id="rId24" location="!/time/479510"/>
     <hyperlink ref="C26" r:id="rId25" location="!/time/18661583"/>
     <hyperlink ref="C27" r:id="rId26" location="!/time/3851966"/>
-    <hyperlink ref="C28" r:id="rId27" location="!/time/18187555"/>
-    <hyperlink ref="C29" r:id="rId28" location="!/time/44574236"/>
-    <hyperlink ref="C30" r:id="rId29" location="!/time/387186"/>
-    <hyperlink ref="C31" r:id="rId30" location="!/time/44810918"/>
-    <hyperlink ref="C32" r:id="rId31" location="!/time/14696986"/>
-    <hyperlink ref="C33" r:id="rId32" location="!/time/18346776"/>
-    <hyperlink ref="C34" r:id="rId33" location="!/time/3914981"/>
-    <hyperlink ref="C35" r:id="rId34" location="!/time/9823692"/>
-    <hyperlink ref="C36" r:id="rId35" location="!/time/47543456"/>
-    <hyperlink ref="C37" r:id="rId36" location="!/time/3424598"/>
-    <hyperlink ref="C38" r:id="rId37" location="!/time/5823700"/>
-    <hyperlink ref="C39" r:id="rId38" location="!/time/29228373"/>
-    <hyperlink ref="C40" r:id="rId39" location="!/time/6148913"/>
-    <hyperlink ref="C41" r:id="rId40" location="!/time/4911779"/>
-    <hyperlink ref="C42" r:id="rId41" location="!/time/2602301"/>
-    <hyperlink ref="C43" r:id="rId42" location="!/time/212042"/>
-    <hyperlink ref="C44" r:id="rId43" location="!/time/25565675"/>
-    <hyperlink ref="C45" r:id="rId44" location="!/time/25751748"/>
-    <hyperlink ref="C46" r:id="rId45" location="!/time/49355335"/>
-    <hyperlink ref="C47" r:id="rId46" location="!/time/49180400"/>
-    <hyperlink ref="C48" r:id="rId47" location="!/time/17887202"/>
-    <hyperlink ref="C49" r:id="rId48" location="!/time/20696550"/>
-    <hyperlink ref="C50" r:id="rId49" location="!/time/25401606"/>
-    <hyperlink ref="C51" r:id="rId50" location="!/time/44536510"/>
-    <hyperlink ref="C52" r:id="rId51" location="!/time/8319052"/>
-    <hyperlink ref="C53" r:id="rId52" location="!/time/24468241"/>
-    <hyperlink ref="C54" r:id="rId53" location="!/time/25811332"/>
-    <hyperlink ref="C55" r:id="rId54" location="!/time/13707047"/>
-    <hyperlink ref="C56" r:id="rId55" location="!/time/117598"/>
-    <hyperlink ref="C57" r:id="rId56" location="!/time/14124559"/>
-    <hyperlink ref="C58" r:id="rId57" location="!/time/8707471"/>
-    <hyperlink ref="C59" r:id="rId58" location="!/time/20340994"/>
-    <hyperlink ref="C60" r:id="rId59" location="!/time/50189029"/>
-    <hyperlink ref="C61" r:id="rId60" location="!/time/5664592"/>
-    <hyperlink ref="C62" r:id="rId61" location="!/time/26891853"/>
-    <hyperlink ref="C63" r:id="rId62" location="!/time/49128587"/>
-    <hyperlink ref="C64" r:id="rId63" location="!/time/50158297"/>
-    <hyperlink ref="C65" r:id="rId64" location="!/time/25311459"/>
-    <hyperlink ref="C66" r:id="rId65" location="!/time/36359"/>
-    <hyperlink ref="C67" r:id="rId66" location="!/time/44574146"/>
-    <hyperlink ref="C68" r:id="rId67" location="!/time/2981301"/>
-    <hyperlink ref="C69" r:id="rId68" location="!/time/49121941"/>
+    <hyperlink ref="C28" r:id="rId27" location="!/time/44574236"/>
+    <hyperlink ref="C29" r:id="rId28" location="!/time/387186"/>
+    <hyperlink ref="C30" r:id="rId29" location="!/time/44810918"/>
+    <hyperlink ref="C31" r:id="rId30" location="!/time/14696986"/>
+    <hyperlink ref="C32" r:id="rId31" location="!/time/18346776"/>
+    <hyperlink ref="C33" r:id="rId32" location="!/time/3914981"/>
+    <hyperlink ref="C34" r:id="rId33" location="!/time/9823692"/>
+    <hyperlink ref="C35" r:id="rId34" location="!/time/47543456"/>
+    <hyperlink ref="C36" r:id="rId35" location="!/time/3424598"/>
+    <hyperlink ref="C37" r:id="rId36" location="!/time/5823700"/>
+    <hyperlink ref="C38" r:id="rId37" location="!/time/29228373"/>
+    <hyperlink ref="C39" r:id="rId38" location="!/time/6148913"/>
+    <hyperlink ref="C40" r:id="rId39" location="!/time/4911779"/>
+    <hyperlink ref="C41" r:id="rId40" location="!/time/2602301"/>
+    <hyperlink ref="C42" r:id="rId41" location="!/time/212042"/>
+    <hyperlink ref="C43" r:id="rId42" location="!/time/25565675"/>
+    <hyperlink ref="C44" r:id="rId43" location="!/time/25751748"/>
+    <hyperlink ref="C45" r:id="rId44" location="!/time/49355335"/>
+    <hyperlink ref="C46" r:id="rId45" location="!/time/49180400"/>
+    <hyperlink ref="C47" r:id="rId46" location="!/time/17887202"/>
+    <hyperlink ref="C48" r:id="rId47" location="!/time/20696550"/>
+    <hyperlink ref="C49" r:id="rId48" location="!/time/25401606"/>
+    <hyperlink ref="C50" r:id="rId49" location="!/time/44536510"/>
+    <hyperlink ref="C51" r:id="rId50" location="!/time/8319052"/>
+    <hyperlink ref="C52" r:id="rId51" location="!/time/24468241"/>
+    <hyperlink ref="C53" r:id="rId52" location="!/time/25811332"/>
+    <hyperlink ref="C54" r:id="rId53" location="!/time/13707047"/>
+    <hyperlink ref="C55" r:id="rId54" location="!/time/117598"/>
+    <hyperlink ref="C56" r:id="rId55" location="!/time/14124559"/>
+    <hyperlink ref="C57" r:id="rId56" location="!/time/8707471"/>
+    <hyperlink ref="C58" r:id="rId57" location="!/time/20340994"/>
+    <hyperlink ref="C59" r:id="rId58" location="!/time/50189029"/>
+    <hyperlink ref="C60" r:id="rId59" location="!/time/5664592"/>
+    <hyperlink ref="C61" r:id="rId60" location="!/time/26891853"/>
+    <hyperlink ref="C62" r:id="rId61" location="!/time/49128587"/>
+    <hyperlink ref="C63" r:id="rId62" location="!/time/50158297"/>
+    <hyperlink ref="C64" r:id="rId63" location="!/time/25311459"/>
+    <hyperlink ref="C65" r:id="rId64" location="!/time/36359"/>
+    <hyperlink ref="C66" r:id="rId65" location="!/time/44574146"/>
+    <hyperlink ref="C67" r:id="rId66" location="!/time/2981301"/>
+    <hyperlink ref="C68" r:id="rId67" location="!/time/49121941"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
